--- a/po_analysis_by_asin/B0BV89RLW8_po_data.xlsx
+++ b/po_analysis_by_asin/B0BV89RLW8_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -549,7 +550,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -591,6 +592,285 @@
       </c>
       <c r="B6" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>185</v>
+      </c>
+      <c r="C2" t="n">
+        <v>77.80402153733189</v>
+      </c>
+      <c r="D2" t="n">
+        <v>291.5121692818328</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>168</v>
+      </c>
+      <c r="C3" t="n">
+        <v>51.05578268053675</v>
+      </c>
+      <c r="D3" t="n">
+        <v>279.5770242831935</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>159</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44.51922555948484</v>
+      </c>
+      <c r="D4" t="n">
+        <v>272.5851319173335</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>155</v>
+      </c>
+      <c r="C5" t="n">
+        <v>42.66069306579083</v>
+      </c>
+      <c r="D5" t="n">
+        <v>265.2200899104586</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>137</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30.85440204402834</v>
+      </c>
+      <c r="D6" t="n">
+        <v>242.3962248549254</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>133</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.59442668202372</v>
+      </c>
+      <c r="D7" t="n">
+        <v>241.0986492423849</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>129</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16.40832301441396</v>
+      </c>
+      <c r="D8" t="n">
+        <v>243.7054026043563</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>124</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16.38830339850651</v>
+      </c>
+      <c r="D9" t="n">
+        <v>234.625511824907</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>81</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-40.16449264501346</v>
+      </c>
+      <c r="D10" t="n">
+        <v>190.7773591723462</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>76</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-35.14356937650479</v>
+      </c>
+      <c r="D11" t="n">
+        <v>183.1821805480124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>72</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-36.68270089824037</v>
+      </c>
+      <c r="D12" t="n">
+        <v>190.1022965792177</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>68</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-40.37494741777704</v>
+      </c>
+      <c r="D13" t="n">
+        <v>180.3796364708256</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>63</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-44.89212940311832</v>
+      </c>
+      <c r="D14" t="n">
+        <v>175.7727546742126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>59</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-51.32180805657</v>
+      </c>
+      <c r="D15" t="n">
+        <v>163.976052706169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>55</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-53.29611141988718</v>
+      </c>
+      <c r="D16" t="n">
+        <v>167.1347366084073</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-53.57625133342427</v>
+      </c>
+      <c r="D17" t="n">
+        <v>159.0801183847998</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>46</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-58.21759659720453</v>
+      </c>
+      <c r="D18" t="n">
+        <v>158.6551129462819</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BV89RLW8_po_data.xlsx
+++ b/po_analysis_by_asin/B0BV89RLW8_po_data.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,16 +624,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -642,12 +632,6 @@
       <c r="B2" t="n">
         <v>185</v>
       </c>
-      <c r="C2" t="n">
-        <v>77.80402153733189</v>
-      </c>
-      <c r="D2" t="n">
-        <v>291.5121692818328</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -656,12 +640,6 @@
       <c r="B3" t="n">
         <v>168</v>
       </c>
-      <c r="C3" t="n">
-        <v>51.05578268053675</v>
-      </c>
-      <c r="D3" t="n">
-        <v>279.5770242831935</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -670,12 +648,6 @@
       <c r="B4" t="n">
         <v>159</v>
       </c>
-      <c r="C4" t="n">
-        <v>44.51922555948484</v>
-      </c>
-      <c r="D4" t="n">
-        <v>272.5851319173335</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -684,12 +656,6 @@
       <c r="B5" t="n">
         <v>155</v>
       </c>
-      <c r="C5" t="n">
-        <v>42.66069306579083</v>
-      </c>
-      <c r="D5" t="n">
-        <v>265.2200899104586</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -698,12 +664,6 @@
       <c r="B6" t="n">
         <v>137</v>
       </c>
-      <c r="C6" t="n">
-        <v>30.85440204402834</v>
-      </c>
-      <c r="D6" t="n">
-        <v>242.3962248549254</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -712,12 +672,6 @@
       <c r="B7" t="n">
         <v>133</v>
       </c>
-      <c r="C7" t="n">
-        <v>22.59442668202372</v>
-      </c>
-      <c r="D7" t="n">
-        <v>241.0986492423849</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -726,12 +680,6 @@
       <c r="B8" t="n">
         <v>129</v>
       </c>
-      <c r="C8" t="n">
-        <v>16.40832301441396</v>
-      </c>
-      <c r="D8" t="n">
-        <v>243.7054026043563</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -740,12 +688,6 @@
       <c r="B9" t="n">
         <v>124</v>
       </c>
-      <c r="C9" t="n">
-        <v>16.38830339850651</v>
-      </c>
-      <c r="D9" t="n">
-        <v>234.625511824907</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -754,12 +696,6 @@
       <c r="B10" t="n">
         <v>81</v>
       </c>
-      <c r="C10" t="n">
-        <v>-40.16449264501346</v>
-      </c>
-      <c r="D10" t="n">
-        <v>190.7773591723462</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -768,12 +704,6 @@
       <c r="B11" t="n">
         <v>76</v>
       </c>
-      <c r="C11" t="n">
-        <v>-35.14356937650479</v>
-      </c>
-      <c r="D11" t="n">
-        <v>183.1821805480124</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -782,12 +712,6 @@
       <c r="B12" t="n">
         <v>72</v>
       </c>
-      <c r="C12" t="n">
-        <v>-36.68270089824037</v>
-      </c>
-      <c r="D12" t="n">
-        <v>190.1022965792177</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -796,12 +720,6 @@
       <c r="B13" t="n">
         <v>68</v>
       </c>
-      <c r="C13" t="n">
-        <v>-40.37494741777704</v>
-      </c>
-      <c r="D13" t="n">
-        <v>180.3796364708256</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -810,12 +728,6 @@
       <c r="B14" t="n">
         <v>63</v>
       </c>
-      <c r="C14" t="n">
-        <v>-44.89212940311832</v>
-      </c>
-      <c r="D14" t="n">
-        <v>175.7727546742126</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -824,12 +736,6 @@
       <c r="B15" t="n">
         <v>59</v>
       </c>
-      <c r="C15" t="n">
-        <v>-51.32180805657</v>
-      </c>
-      <c r="D15" t="n">
-        <v>163.976052706169</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -838,12 +744,6 @@
       <c r="B16" t="n">
         <v>55</v>
       </c>
-      <c r="C16" t="n">
-        <v>-53.29611141988718</v>
-      </c>
-      <c r="D16" t="n">
-        <v>167.1347366084073</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -852,12 +752,6 @@
       <c r="B17" t="n">
         <v>50</v>
       </c>
-      <c r="C17" t="n">
-        <v>-53.57625133342427</v>
-      </c>
-      <c r="D17" t="n">
-        <v>159.0801183847998</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -865,12 +759,6 @@
       </c>
       <c r="B18" t="n">
         <v>46</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-58.21759659720453</v>
-      </c>
-      <c r="D18" t="n">
-        <v>158.6551129462819</v>
       </c>
     </row>
   </sheetData>
